--- a/Gantt_Worksheet-Group_6.xlsx
+++ b/Gantt_Worksheet-Group_6.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10308"/>
   <workbookPr checkCompatibility="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\新建文件夹 (4)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yujiayue/Group-6-Animal-Hospital-System/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F0975848-035D-4B36-8179-ACD7B39530A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C1134E6-9917-A048-AEEE-A06EC338561F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$R$26</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$R$30</definedName>
   </definedNames>
   <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="61">
   <si>
     <t>Team Members</t>
   </si>
@@ -109,134 +109,166 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Task 1.1: Analyse the requirements of the employee aspects.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Task 1.2: Design the architectures of the relevant part of the project.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Task 1.3: Complete the functions on the back-end.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Task 1.4: Connect with the front-end UI</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Task 1.5: Test the whole project</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Task 4.1: Analyse user requirements </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Task 4.2: Design the layout of website pages</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Task 4.3: Write code to realize the User Interface </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Task 4.4: Test the implementation of the employee-side website</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Task 4.5 Test the communication between the employee and the customer side</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Task 2.1: Analyse requirements of the project</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Task 2.2: Design basing on requirements analysis</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Task 2.3: Implement functions of the back end of employee’s function</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Task 2.4:  Connect to the database</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Task 2.5 Connect to the front end</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Task 3.1: Analyse customer’s requirements</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Task 3.2: Design</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Task 3.3: Achieve all the functionalities</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Task 3.4: Connect to the front-end</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Task 3.5 Project integration and testing</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>WP 6: Back-end _Databases Manager: Long Min</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Task 6.1: Requirements analyse</t>
+    <t>deliverable</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Task 6.2: Design</t>
+    <t>milestone</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Task 6.3: Implement</t>
+    <t>Task 1.3: Online chatting between customers and employees implementation</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Task 6.4: Deploy</t>
+    <t>Task 1.4: Employees handling with all the appointments implementation</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Task 6.5: Test</t>
+    <t>Task 1.5: Cloud server and non-functional requirements implementation</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Task 5.1: Analyse user requirements</t>
+    <t>Task 2.3: Online chatting between customers and employees implementation</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Task 5.2: Design the website layout based on the requirements</t>
+    <t>Task 2.4: Employees sending notifications implementation</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Task 5.3: Write code to accomplish the User Interface of customers</t>
+    <t>Task 2.5: Cloud server and non-functional requirements implementation</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Task 5.4: Write code to help the back-end implementation</t>
+    <t>Task 3.4: Customers making appointments implementation</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Task 5.5: Test the implementation of the entire website</t>
+    <t>Task 4.3: Emloyees interface implementation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Task 4.2: Login &amp; register interface design</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Task 3.5: Customers seeing the status of pets implementation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Task 4.4: Employees appointments handling implementation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Task 4.5: Cloud server and non-functional requirements implementation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Task 5.1: Requirement analysis and architecture design on the customers' side</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Task 4.1: Requirement analysis and architecture design on the employees' side</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Task 3.1: Requirement analysis and architecture design on the customers' side</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Task 2.1: Requirement analysis and architecture design on the employees' side</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Task 1.1: Requirement analysis and architecture design on the employees' side</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Task 5.2: Login &amp; register interface design</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Task 5.3: Customers interface implementation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Task 5.4: Customers making appointments implementation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Task 5.5: Customers seeing the status of pets implementation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Task 6.1: Requirement analysis and architecture design on both side</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Task 6.2: User login &amp; register database design and implementation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Task 1.2: Login &amp; register database design and implementation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Task 2.2: Login &amp; register database design and implementation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Task 3.2: Customers profile design and implementation </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Task 3.3: Appointments database design</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Task 6.4: Appointments database design</t>
+  </si>
+  <si>
+    <t>Task 6.3: Customer profile database design</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Task 6.5: Cloud server and non-functional requirements implementation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Task 3.6: Test first beta of the system</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Task 1.6: Test first beta of the system</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Task 2.6: Test first beta of the system</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Task 4.6: Test first beta of the system</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Task 5.6: Test first beta of the system</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Task 6.6: Test first beta of the system</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -265,6 +297,11 @@
       <b/>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Helvetica Light"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Helvetica Light"/>
     </font>
   </fonts>
@@ -587,7 +624,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -669,9 +706,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -691,15 +731,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>69168</xdr:colOff>
+      <xdr:colOff>40640</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>206828</xdr:colOff>
+      <xdr:rowOff>81280</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>233680</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>82114</xdr:rowOff>
+      <xdr:rowOff>81280</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -713,9 +753,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="4635725" y="381000"/>
-          <a:ext cx="3392489" cy="5914"/>
+        <a:xfrm>
+          <a:off x="6004560" y="386080"/>
+          <a:ext cx="3322320" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -758,13 +798,13 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>54429</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>81643</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
+      <xdr:rowOff>81280</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>81643</xdr:rowOff>
+      <xdr:rowOff>81644</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -778,9 +818,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4620986" y="538843"/>
-          <a:ext cx="674914" cy="0"/>
+        <a:xfrm flipV="1">
+          <a:off x="6018349" y="538480"/>
+          <a:ext cx="1621971" cy="364"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -821,16 +861,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>81643</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>40640</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>81280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>201386</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>87086</xdr:rowOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>81644</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -844,9 +884,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="6672943" y="2062843"/>
-          <a:ext cx="914400" cy="5443"/>
+        <a:xfrm>
+          <a:off x="7711440" y="2214880"/>
+          <a:ext cx="729706" cy="364"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -887,16 +927,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>52377</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>81643</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>212271</xdr:colOff>
+      <xdr:rowOff>98535</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>251811</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>87086</xdr:rowOff>
+      <xdr:rowOff>102388</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -910,9 +950,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4855029" y="691243"/>
-          <a:ext cx="925285" cy="5443"/>
+        <a:xfrm flipV="1">
+          <a:off x="6873153" y="711638"/>
+          <a:ext cx="1053399" cy="3853"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -955,14 +995,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>49087</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>81643</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>212271</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>83257</xdr:rowOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>81280</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>233680</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>83258</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -977,8 +1017,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="5432073" y="1453243"/>
-          <a:ext cx="3167641" cy="1614"/>
+          <a:off x="6013007" y="1757680"/>
+          <a:ext cx="3313873" cy="1978"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1020,13 +1060,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>61232</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>66726</xdr:rowOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>198564</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>84364</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1042,8 +1082,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="5444218" y="2505126"/>
-          <a:ext cx="2891417" cy="17638"/>
+          <a:off x="6030232" y="2514600"/>
+          <a:ext cx="3240768" cy="8164"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1083,16 +1123,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>50112</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>81643</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>201386</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>82707</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>39952</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>92868</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1107,8 +1147,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="6184212" y="1910443"/>
-          <a:ext cx="902388" cy="1064"/>
+          <a:off x="7426272" y="2072640"/>
+          <a:ext cx="783008" cy="1428"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1149,16 +1189,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>61887</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>223157</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>83056</xdr:rowOff>
+      <xdr:colOff>43793</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>91441</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>274320</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>98535</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1173,8 +1213,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="5695244" y="1752600"/>
-          <a:ext cx="662013" cy="6856"/>
+          <a:off x="6864569" y="1930751"/>
+          <a:ext cx="1084492" cy="7094"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1217,14 +1257,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>201385</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>81643</xdr:rowOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>81280</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>264160</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>81644</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1239,8 +1279,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="5433786" y="1600200"/>
-          <a:ext cx="651328" cy="5443"/>
+          <a:off x="6014720" y="1910080"/>
+          <a:ext cx="1635760" cy="364"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1283,14 +1323,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>64307</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>195942</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>80579</xdr:rowOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>80580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>264160</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>81280</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1304,9 +1344,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="5447293" y="2667000"/>
-          <a:ext cx="632378" cy="4379"/>
+        <a:xfrm>
+          <a:off x="6028227" y="2976180"/>
+          <a:ext cx="1622253" cy="700"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1347,16 +1387,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>59871</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>81643</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>195943</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>81644</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>70031</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>101963</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>206103</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>101964</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1371,8 +1411,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7195457" y="3129643"/>
-          <a:ext cx="887186" cy="1"/>
+          <a:off x="7740831" y="3454763"/>
+          <a:ext cx="989512" cy="1"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1415,14 +1455,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>51707</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>206829</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>81645</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>81646</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1437,8 +1477,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="5434693" y="3276600"/>
-          <a:ext cx="3409950" cy="5445"/>
+          <a:off x="6020707" y="3581400"/>
+          <a:ext cx="3288393" cy="5446"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1476,16 +1516,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>43543</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>70757</xdr:rowOff>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>195943</xdr:colOff>
+      <xdr:colOff>233680</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>91441</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1500,8 +1540,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="5361214" y="832757"/>
-          <a:ext cx="1153886" cy="5443"/>
+          <a:off x="7437120" y="853440"/>
+          <a:ext cx="751840" cy="1"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1542,16 +1582,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>43543</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>40640</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>243840</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>81643</xdr:rowOff>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1565,9 +1605,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="6362700" y="990600"/>
-          <a:ext cx="1148443" cy="5443"/>
+        <a:xfrm>
+          <a:off x="7711440" y="1005840"/>
+          <a:ext cx="1056640" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1608,23 +1648,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>215020</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>80433</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>2745</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>99581</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>52041</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>20320</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>60959</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>101599</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="49" name="Picture 48">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000031000000}"/>
+        <xdr:cNvPr id="56" name="Picture 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000038000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1640,8 +1680,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5848377" y="1604433"/>
-          <a:ext cx="288468" cy="171548"/>
+          <a:off x="7153881" y="325120"/>
+          <a:ext cx="293398" cy="233679"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1653,22 +1693,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>220517</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>68447</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>4161</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>87595</xdr:rowOff>
+      <xdr:colOff>48941</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>40640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>73430</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>117667</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="50" name="Picture 49">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000032000000}"/>
+        <xdr:cNvPr id="53" name="Picture 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000035000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1684,8 +1724,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6855360" y="1897247"/>
-          <a:ext cx="284387" cy="171548"/>
+          <a:off x="7414941" y="497840"/>
+          <a:ext cx="303889" cy="229427"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1694,150 +1734,18 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>209301</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>53219</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>237876</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>72366</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="54" name="Picture 53">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000036000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7029201" y="815219"/>
-          <a:ext cx="278946" cy="171547"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>219973</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>65615</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>3618</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>84763</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="56" name="Picture 55">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000038000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5287273" y="522815"/>
-          <a:ext cx="284387" cy="171548"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>54680</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>81280</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>97201</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>47720</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>121690</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>66867</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="53" name="Picture 52">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000035000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6165987" y="657320"/>
-          <a:ext cx="274861" cy="171547"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>54680</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:colOff>243840</xdr:colOff>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>84270</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>87086</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1851,9 +1759,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5688037" y="2827470"/>
-          <a:ext cx="886934" cy="2816"/>
+        <a:xfrm flipV="1">
+          <a:off x="7441000" y="3129280"/>
+          <a:ext cx="473640" cy="2990"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1895,66 +1803,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>206602</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>26691</xdr:rowOff>
+      <xdr:colOff>40459</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>30481</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>184827</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>34953</xdr:rowOff>
+      <xdr:colOff>74475</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>121311</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="37" name="Picture 36">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000025000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8157709" y="5224620"/>
-          <a:ext cx="259439" cy="171547"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>195942</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>43544</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>234039</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>68335</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="39" name="Picture 38">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000027000000}"/>
+        <xdr:cNvPr id="40" name="Picture 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000028000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1972,8 +1836,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6264728" y="653144"/>
-          <a:ext cx="288469" cy="177191"/>
+          <a:off x="7995739" y="640081"/>
+          <a:ext cx="318496" cy="243230"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1984,23 +1848,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>9979</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>76199</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>43995</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>64771</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>100990</xdr:rowOff>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>53879</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>109700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="40" name="Picture 39">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000028000000}"/>
+        <xdr:cNvPr id="41" name="Picture 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000029000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2018,8 +1882,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6579508" y="838199"/>
-          <a:ext cx="284388" cy="177191"/>
+          <a:off x="8827771" y="944880"/>
+          <a:ext cx="268508" cy="231620"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2028,156 +1892,18 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>196850</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>51707</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>225423</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>79220</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="41" name="Picture 40">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000029000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:grayscl/>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7267121" y="813707"/>
-          <a:ext cx="278944" cy="179913"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>51707</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>55790</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>80580</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="42" name="Picture 41">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002A000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:grayscl/>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7938407" y="2951390"/>
-          <a:ext cx="293914" cy="177190"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>126093</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>73479</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>135617</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>98270</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="58" name="Picture 57">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003A000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:grayscl/>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6760936" y="1902279"/>
-          <a:ext cx="259895" cy="177191"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
       <xdr:colOff>55711</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>70757</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>195943</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>79657</xdr:rowOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>99978</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>243840</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2191,9 +1917,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="6440182" y="2966357"/>
-          <a:ext cx="891347" cy="8900"/>
+        <a:xfrm>
+          <a:off x="7442031" y="3300378"/>
+          <a:ext cx="1041569" cy="1622"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2234,23 +1960,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>74466</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>51253</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>118008</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>78766</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>31145</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>54695</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>58420</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>123173</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="63" name="Picture 62">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003F000000}"/>
+        <xdr:cNvPr id="44" name="Picture 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2268,144 +1994,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7460423" y="2946853"/>
-          <a:ext cx="293914" cy="179913"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>17512</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>59162</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>27034</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>83953</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="52" name="Picture 51">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000034000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:grayscl/>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6902726" y="2802362"/>
-          <a:ext cx="259894" cy="177191"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>236885</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>45042</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>24613</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>69833</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="44" name="Picture 43">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002C000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:grayscl/>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6621356" y="1721442"/>
-          <a:ext cx="288471" cy="177191"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>218703</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>68063</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>11872</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>87211</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="46" name="Picture 45">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002E000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7103917" y="1896863"/>
-          <a:ext cx="293912" cy="171548"/>
+          <a:off x="7676545" y="1731095"/>
+          <a:ext cx="306675" cy="220878"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2418,14 +2008,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>59871</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>81643</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>201385</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>87086</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>227641</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>83868</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2440,8 +2030,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5442857" y="3434443"/>
-          <a:ext cx="642257" cy="5443"/>
+          <a:off x="6026475" y="4287020"/>
+          <a:ext cx="1270034" cy="2225"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2482,16 +2072,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>43543</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>81643</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>201385</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>81644</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>55524</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>105605</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>213366</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>105606</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2506,8 +2096,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7179129" y="3962400"/>
-          <a:ext cx="908956" cy="1"/>
+          <a:off x="7675524" y="4802209"/>
+          <a:ext cx="984540" cy="1"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2548,16 +2138,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>81642</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>195943</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>88447</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>47626</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>95849</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>227642</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>100428</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2572,8 +2162,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="5680982" y="3603171"/>
-          <a:ext cx="649061" cy="6805"/>
+          <a:off x="7116494" y="4624717"/>
+          <a:ext cx="1282280" cy="4579"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2614,15 +2204,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>48985</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>97972</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>60966</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>206829</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>102054</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2638,8 +2228,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="6183085" y="3788229"/>
-          <a:ext cx="908958" cy="4082"/>
+          <a:off x="6593846" y="4368800"/>
+          <a:ext cx="1330954" cy="454"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2678,100 +2268,18 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>6626</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>91820</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="254452" cy="174469"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="70" name="Picture 69">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000046000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:grayscl/>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7142212" y="3782077"/>
-          <a:ext cx="254452" cy="174469"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>239309</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>78212</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="254452" cy="174469"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="71" name="Picture 70">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000047000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:grayscl/>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6874152" y="3599741"/>
-          <a:ext cx="254452" cy="174469"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>72571</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>72572</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>217714</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>77107</xdr:rowOff>
+      <xdr:colOff>47171</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>89808</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2786,8 +2294,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="7742464" y="5433786"/>
-          <a:ext cx="1270000" cy="4535"/>
+          <a:off x="7692571" y="6032500"/>
+          <a:ext cx="1045029" cy="908"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2830,14 +2338,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>49893</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>77108</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>9072</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>86179</xdr:rowOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>88182</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>89090</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2851,9 +2359,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6032500" y="4785179"/>
-          <a:ext cx="3896179" cy="9071"/>
+        <a:xfrm flipV="1">
+          <a:off x="6016497" y="5479691"/>
+          <a:ext cx="3222633" cy="908"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2893,16 +2401,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>49204</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>86178</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>213178</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>89964</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>37223</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>77983</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2917,8 +2425,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="6875454" y="5284107"/>
-          <a:ext cx="1007617" cy="3786"/>
+          <a:off x="7123823" y="5854700"/>
+          <a:ext cx="1321677" cy="1783"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2959,16 +2467,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>51909</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>51910</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>81280</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>86684</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>213179</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>90714</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2982,9 +2490,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6315730" y="5121327"/>
-          <a:ext cx="723699" cy="4030"/>
+        <a:xfrm flipV="1">
+          <a:off x="6584790" y="5679440"/>
+          <a:ext cx="1340010" cy="5404"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -3027,14 +2535,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>40822</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>77107</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>258535</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>77107</xdr:rowOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>83868</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>251604</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>89088</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3048,9 +2556,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6023429" y="4948464"/>
-          <a:ext cx="780142" cy="0"/>
+        <a:xfrm flipV="1">
+          <a:off x="6007426" y="5643113"/>
+          <a:ext cx="1313046" cy="5220"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -3089,217 +2597,18 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>10912</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>95853</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="288468" cy="171548"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="75" name="Picture 48">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B70A30AA-A971-4D48-9112-EFCCB6EB7102}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7399591" y="5130496"/>
-          <a:ext cx="288468" cy="171548"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>170625</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>89312</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="284387" cy="171548"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="76" name="Picture 49">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F59FBA6D-96AD-47A2-A3D9-0CD1A92706D2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6715661" y="4960669"/>
-          <a:ext cx="284387" cy="171548"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>21772</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>90714</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="259895" cy="177191"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="77" name="Picture 57">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0646F75-7F5D-4FB6-8CF4-97838066FD0D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:grayscl/>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7691665" y="5125357"/>
-          <a:ext cx="259895" cy="177191"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>266820</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>50484</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="288471" cy="177191"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="79" name="Picture 43">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7144209-C862-43CC-9B36-C3707BB601AB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:grayscl/>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8499141" y="5248413"/>
-          <a:ext cx="288471" cy="177191"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>180602</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>39035</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="293912" cy="171548"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="80" name="Picture 45">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46322DE2-E5C2-44F3-88CA-6730F0C70C57}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8694138" y="5236964"/>
-          <a:ext cx="293912" cy="171548"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>56443</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>87993</xdr:rowOff>
+      <xdr:colOff>64445</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>100982</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>234949</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>90110</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3313,9 +2622,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="7192029" y="6467022"/>
-          <a:ext cx="929620" cy="2117"/>
+        <a:xfrm>
+          <a:off x="7709845" y="7365382"/>
+          <a:ext cx="1053155" cy="618"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -3356,15 +2665,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>59972</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>94141</xdr:rowOff>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>206829</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>97972</xdr:rowOff>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>88901</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3379,8 +2688,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5442958" y="5798255"/>
-          <a:ext cx="2900942" cy="3831"/>
+          <a:off x="6007100" y="5918200"/>
+          <a:ext cx="3276600" cy="1"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -3420,16 +2729,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>60998</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>87086</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>195943</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>88150</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>48298</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>100850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3443,9 +2752,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="6195098" y="6297386"/>
-          <a:ext cx="886059" cy="1064"/>
+        <a:xfrm>
+          <a:off x="8531898" y="7530350"/>
+          <a:ext cx="472402" cy="750"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -3485,16 +2794,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>72772</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>93941</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>201386</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>97972</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>44456</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>88741</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>260245</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>93689</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3509,8 +2818,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5706129" y="6135512"/>
-          <a:ext cx="629357" cy="4031"/>
+          <a:off x="6576628" y="7006077"/>
+          <a:ext cx="1340051" cy="4948"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -3551,15 +2860,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>61686</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>92528</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>206828</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>97971</xdr:rowOff>
+      <xdr:colOff>48986</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>85272</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3573,9 +2882,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="5444672" y="5965371"/>
-          <a:ext cx="645885" cy="5443"/>
+        <a:xfrm>
+          <a:off x="6017986" y="6854372"/>
+          <a:ext cx="1589314" cy="3628"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -3613,176 +2922,18 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>236791</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>113090</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="288468" cy="171548"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="86" name="Picture 48">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{424A9615-2C35-4034-95A6-B614F00168B6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6120520" y="5985933"/>
-          <a:ext cx="288468" cy="171548"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>204189</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>90219</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="284387" cy="171548"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="87" name="Picture 49">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C7DBE9B-0BFF-40F6-9046-737E442AE974}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6839032" y="6131790"/>
-          <a:ext cx="284387" cy="171548"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>89927</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>77699</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="288471" cy="177191"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="90" name="Picture 43">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D377FCF2-7B22-4C46-AFAC-E792604B6722}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:grayscl/>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7475884" y="6287999"/>
-          <a:ext cx="288471" cy="177191"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>191489</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>89836</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="293912" cy="171548"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="91" name="Picture 45">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA8B1FA4-04B9-4F78-B325-015490EF6B99}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5824846" y="5793950"/>
-          <a:ext cx="293912" cy="171548"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>54429</xdr:colOff>
+      <xdr:colOff>20320</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>87085</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>201386</xdr:colOff>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>233680</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>92528</xdr:rowOff>
+      <xdr:rowOff>101601</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3796,9 +2947,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="6874329" y="1153885"/>
-          <a:ext cx="1148443" cy="5443"/>
+        <a:xfrm>
+          <a:off x="8544560" y="1168400"/>
+          <a:ext cx="497840" cy="1"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -3839,23 +2990,325 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>6802</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>72117</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>50344</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>99629</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>179696</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>40640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>213712</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>131572</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="61" name="Picture 60">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003D000000}"/>
+        <xdr:cNvPr id="97" name="Picture 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF904149-E37B-4F43-A4C9-99E56BF73D31}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7850496" y="650240"/>
+          <a:ext cx="318496" cy="243332"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>40640</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>223520</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="115" name="Straight Connector 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38D0DE94-7E50-45F4-B16E-6DB2BBFFA11E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8849360" y="2529840"/>
+          <a:ext cx="467360" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="92075" cap="rnd">
+          <a:solidFill>
+            <a:schemeClr val="accent3">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="threePt" dir="t"/>
+        </a:scene3d>
+        <a:sp3d>
+          <a:bevelT/>
+          <a:bevelB/>
+        </a:sp3d>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>223520</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="133" name="Straight Connector 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{801F25FB-C234-4091-8B27-C751DE2CB413}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8016240" y="3596640"/>
+          <a:ext cx="1016000" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="92075" cap="rnd">
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="40000"/>
+              <a:lumOff val="60000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="threePt" dir="t"/>
+        </a:scene3d>
+        <a:sp3d>
+          <a:bevelT/>
+          <a:bevelB/>
+        </a:sp3d>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>35809</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>91190</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>264409</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>91190</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="140" name="Straight Connector 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5090D879-FF67-4B60-A196-3DD746873F6F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7130112" y="7175083"/>
+          <a:ext cx="509666" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="92075" cap="rnd">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="65000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="threePt" dir="t"/>
+        </a:scene3d>
+        <a:sp3d>
+          <a:bevelT/>
+          <a:bevelB/>
+        </a:sp3d>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>61767</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>92152</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="100" name="Straight Connector 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C629182-7CBA-4CD8-B8B6-1AF34F7A4257}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7986567" y="6197600"/>
+          <a:ext cx="1005033" cy="3252"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="92075" cap="rnd">
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="threePt" dir="t"/>
+        </a:scene3d>
+        <a:sp3d>
+          <a:bevelT/>
+          <a:bevelB/>
+        </a:sp3d>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="288469" cy="177192"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="108" name="Picture 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{375946F6-06A3-3F41-8D43-D710CB2BD6D2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3873,8 +3326,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7327445" y="986517"/>
-          <a:ext cx="293914" cy="179912"/>
+          <a:off x="8420100" y="7912100"/>
+          <a:ext cx="288469" cy="177192"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3882,26 +3335,21 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>143987</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>74990</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>172562</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>94137</xdr:rowOff>
-    </xdr:to>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="293912" cy="171548"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="93" name="Picture 53">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A60D8486-C38C-4631-8C17-77D9A860C562}"/>
+        <xdr:cNvPr id="110" name="Picture 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC034C20-52E5-A641-B2DB-2BD21C6B1DFD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3917,8 +3365,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7214258" y="989390"/>
-          <a:ext cx="278946" cy="171547"/>
+          <a:off x="8432800" y="8089900"/>
+          <a:ext cx="293912" cy="171548"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3926,26 +3374,26 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
+  </xdr:oneCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>149430</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>176349</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>58661</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>178005</xdr:colOff>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>167542</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>77808</xdr:rowOff>
+      <xdr:rowOff>102847</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="94" name="Picture 53">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9703381E-783D-4F94-9199-6E938954F85B}"/>
+        <xdr:cNvPr id="142" name="Picture 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33952B91-0DDD-A643-BBAE-830886E1D45D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3961,8 +3409,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7720444" y="973061"/>
-          <a:ext cx="278946" cy="171547"/>
+          <a:off x="8659949" y="944880"/>
+          <a:ext cx="270593" cy="224767"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3973,23 +3421,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>142240</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>142240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>100444</xdr:colOff>
+      <xdr:colOff>133433</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>80433</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>129019</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>99580</xdr:rowOff>
+      <xdr:rowOff>62207</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="95" name="Picture 53">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{653FBE58-570F-4703-9179-58701F385223}"/>
+        <xdr:cNvPr id="143" name="Picture 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87C5929E-EFD4-9444-BF68-4887637BCF13}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4005,8 +3453,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6920344" y="994833"/>
-          <a:ext cx="278946" cy="171547"/>
+          <a:off x="8382000" y="751840"/>
+          <a:ext cx="275673" cy="224767"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4015,25 +3463,91 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>40640</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>243840</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="144" name="Straight Connector 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BD5CC7F-E58E-6A47-9087-60D43F33C12F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8849360" y="1320800"/>
+          <a:ext cx="487680" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="92075" cap="rnd">
+          <a:solidFill>
+            <a:schemeClr val="accent4">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="threePt" dir="t"/>
+        </a:scene3d>
+        <a:sp3d>
+          <a:bevelT/>
+          <a:bevelB/>
+        </a:sp3d>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>208188</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>72117</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>1360</xdr:colOff>
+      <xdr:colOff>20320</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>99629</xdr:rowOff>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>9428</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>109700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="96" name="Picture 60">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E53ADD08-2DB8-4344-819B-2A66783A27E4}"/>
+        <xdr:cNvPr id="149" name="Picture 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{834207EA-9237-014C-B7F4-487716ED1D53}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4051,8 +3565,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7028088" y="986517"/>
-          <a:ext cx="293914" cy="179912"/>
+          <a:off x="9113520" y="1097280"/>
+          <a:ext cx="273588" cy="231620"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4063,23 +3577,69 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>66040</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>27940</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>149216</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>81944</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>183232</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>101092</xdr:rowOff>
+      <xdr:colOff>55148</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>107160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="97" name="Picture 55">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF904149-E37B-4F43-A4C9-99E56BF73D31}"/>
+        <xdr:cNvPr id="161" name="Picture 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BB3A96D-2FC1-F14E-B6B7-826EF0532A64}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:grayscl/>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7711440" y="485140"/>
+          <a:ext cx="268508" cy="231620"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>40640</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>142240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>49558</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>71119</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="172" name="Picture 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D479B43-D461-9648-B5CF-D4965B2BCAD7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4095,8 +3655,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6468373" y="843944"/>
-          <a:ext cx="284387" cy="171548"/>
+          <a:off x="7142480" y="1513840"/>
+          <a:ext cx="293398" cy="233679"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4108,31 +3668,521 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>92528</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>201386</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>97971</xdr:rowOff>
+      <xdr:colOff>23962</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>81644</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>221706</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>83868</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="98" name="Straight Connector 54">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1AAB9EA-7C03-4224-9FD6-1E47EC782667}"/>
+        <xdr:cNvPr id="174" name="Straight Connector 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72905EAF-A50E-774F-8759-0298F16C92DA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7674429" y="4142014"/>
-          <a:ext cx="1164771" cy="5443"/>
+        <a:xfrm flipV="1">
+          <a:off x="8470660" y="2417965"/>
+          <a:ext cx="473310" cy="2224"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="92075" cap="rnd">
+          <a:solidFill>
+            <a:schemeClr val="accent3">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="threePt" dir="t"/>
+        </a:scene3d>
+        <a:sp3d>
+          <a:bevelT/>
+          <a:bevelB/>
+        </a:sp3d>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>4637</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>29748</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>79220</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="178" name="Picture 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A47066E-AF1C-674A-AD34-7E870FE2E406}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:grayscl/>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9097837" y="2255520"/>
+          <a:ext cx="309591" cy="262100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>77498</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>134619</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="179" name="Picture 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4118F327-E393-C34F-B72C-333FD281EEE0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7434580" y="1729740"/>
+          <a:ext cx="288318" cy="233679"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>185420</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>194338</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>104139</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="180" name="Picture 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C80625A8-5B0A-5048-AAD7-D68B11C09BDD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7830820" y="1851660"/>
+          <a:ext cx="288318" cy="233679"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>20320</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>8918</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>101599</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="181" name="Picture 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9B7002D-BFAE-A44F-8913-32F8239D6211}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8239760" y="2001520"/>
+          <a:ext cx="293398" cy="233679"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>180340</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>189258</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>93979</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="182" name="Picture 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D47B20FD-6EE0-5245-ABA2-F1910A2558AD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8663940" y="2146300"/>
+          <a:ext cx="288318" cy="233679"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>10160</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>37435</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>81178</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="183" name="Picture 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{562218F4-A94F-C54A-9075-F3CB824A18F3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:grayscl/>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8773160" y="2146300"/>
+          <a:ext cx="306675" cy="220878"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>35560</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>57755</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>104038</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="184" name="Picture 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C93430AC-8D04-554D-8C26-30574BAF3FC0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:grayscl/>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7955280" y="1864360"/>
+          <a:ext cx="306675" cy="220878"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>74467</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>141540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>83385</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>70419</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="186" name="Picture 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0E839B4-8ADA-7447-9948-2E2B9AE4FD58}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7176307" y="2732340"/>
+          <a:ext cx="293398" cy="233679"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>233680</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="194" name="Straight Connector 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F71AAE13-ED65-5F48-8201-A0A7EF5C9774}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8859520" y="3749040"/>
+          <a:ext cx="467360" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="92075" cap="rnd">
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="40000"/>
+              <a:lumOff val="60000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="threePt" dir="t"/>
+        </a:scene3d>
+        <a:sp3d>
+          <a:bevelT/>
+          <a:bevelB/>
+        </a:sp3d>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>41812</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>93752</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>263585</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>95849</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="213" name="Straight Connector 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4A76572-2875-9243-B12A-9D17C82C2144}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8488510" y="4982054"/>
+          <a:ext cx="497339" cy="2097"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -4171,259 +4221,25 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>8025</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>88241</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="283026" cy="168827"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="65" name="Picture 64">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000041000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5891754" y="3441041"/>
-          <a:ext cx="283026" cy="168827"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>247511</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>93683</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="283026" cy="168827"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="104" name="Picture 64">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA2F7B87-ADBF-42B3-97A3-345A716566F4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6631982" y="3615212"/>
-          <a:ext cx="283026" cy="168827"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>84225</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>99127</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="283026" cy="168827"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="105" name="Picture 64">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{993983E8-D3D0-40E6-8A4F-4828DFBC99B5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6969439" y="3789384"/>
-          <a:ext cx="283026" cy="168827"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>203968</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>93684</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="283026" cy="168827"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="106" name="Picture 64">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7AF88793-B91D-408E-BE06-371AA0E3E39E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7589925" y="3783941"/>
-          <a:ext cx="283026" cy="168827"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>230111</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>103866</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="263975" cy="168825"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="59" name="Picture 58">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003B000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8116811" y="3984623"/>
-          <a:ext cx="263975" cy="168825"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>224668</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>92981</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="283026" cy="168827"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="107" name="Picture 64">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4F7A82B-91B2-4262-BE5B-5634F583638B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8612111" y="3973738"/>
-          <a:ext cx="283026" cy="168827"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>59872</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>81643</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>206828</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>87086</xdr:rowOff>
+      <xdr:colOff>23963</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>95849</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>273408</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>99170</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="115" name="Straight Connector 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38D0DE94-7E50-45F4-B16E-6DB2BBFFA11E}"/>
+        <xdr:cNvPr id="217" name="Straight Connector 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4640B8E2-CD42-0349-BE7D-0D24DF8FA7F1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4431,305 +4247,15 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7445829" y="2215243"/>
-          <a:ext cx="1148442" cy="5443"/>
+          <a:off x="8746227" y="5151887"/>
+          <a:ext cx="525011" cy="3321"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
         <a:ln w="92075" cap="rnd">
           <a:solidFill>
-            <a:schemeClr val="accent3">
-              <a:lumMod val="60000"/>
-              <a:lumOff val="40000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-        <a:scene3d>
-          <a:camera prst="orthographicFront"/>
-          <a:lightRig rig="threePt" dir="t"/>
-        </a:scene3d>
-        <a:sp3d>
-          <a:bevelT/>
-          <a:bevelB/>
-        </a:sp3d>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>186045</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>84392</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>229586</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>103540</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="118" name="Picture 45">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55C245B9-F7AC-45D9-AD57-864012A1B707}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7822374" y="2065592"/>
-          <a:ext cx="293912" cy="171548"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>213260</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>84392</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>6429</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>103540</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="119" name="Picture 45">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3612DD9F-9E2C-4F39-9BFC-70E78089DF49}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8350331" y="2065592"/>
-          <a:ext cx="293912" cy="171548"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>213259</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>78948</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>6428</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>98096</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="122" name="Picture 45">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B565C06-35B3-4BB1-89D0-27318C8231B7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7348845" y="2060148"/>
-          <a:ext cx="293912" cy="171548"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>89847</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>88585</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>127945</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>113377</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="51" name="Picture 50">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000033000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:grayscl/>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7225433" y="2069785"/>
-          <a:ext cx="288469" cy="177192"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>236805</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>72256</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>24531</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>97048</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="124" name="Picture 50">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEDF2741-0950-47F3-9032-4A4D22C8833B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:grayscl/>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7622762" y="2053456"/>
-          <a:ext cx="288469" cy="177192"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>43542</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>81643</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>81643</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="133" name="Straight Connector 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{801F25FB-C234-4091-8B27-C751DE2CB413}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7679871" y="3282043"/>
-          <a:ext cx="685800" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="92075" cap="rnd">
-          <a:solidFill>
-            <a:schemeClr val="accent6">
+            <a:schemeClr val="tx2">
               <a:lumMod val="40000"/>
               <a:lumOff val="60000"/>
             </a:schemeClr>
@@ -4761,523 +4287,34 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>214855</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>77355</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>2583</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>96503</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="45" name="Picture 44">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002D000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6098584" y="2668155"/>
-          <a:ext cx="288470" cy="171548"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>225741</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>61026</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>13468</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>80174</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="136" name="Picture 44">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6FD656C-38CC-4C61-A883-D5DCEAC1416E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7110955" y="2804226"/>
-          <a:ext cx="288470" cy="171548"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>236627</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>50140</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>24354</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>69288</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="137" name="Picture 44">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9A724A7-2C37-4E65-90D8-B6EA8A6BA0A0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7372213" y="2945740"/>
-          <a:ext cx="288470" cy="171548"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>236627</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>66469</xdr:rowOff>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>24355</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>85617</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="138" name="Picture 44">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD11D344-BDE6-44FE-8D95-BCC01FC01D43}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7872956" y="2962069"/>
-          <a:ext cx="288470" cy="171548"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>8028</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>61026</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>46126</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>80174</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="139" name="Picture 44">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{222D76CD-A64E-4BD7-AE23-CFAFE6E70402}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8145099" y="3109026"/>
-          <a:ext cx="288470" cy="171548"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>246439</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>71210</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>15115</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>90356</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="43" name="Picture 42">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002B000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6380539" y="2814410"/>
-          <a:ext cx="269419" cy="171546"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>51001</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>95553</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>217715</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>97972</xdr:rowOff>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>117116</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="140" name="Straight Connector 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5090D879-FF67-4B60-A196-3DD746873F6F}"/>
+        <xdr:cNvPr id="228" name="Straight Connector 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC1949B2-9D48-6249-96C0-8507A710A766}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7687330" y="6643310"/>
-          <a:ext cx="667456" cy="2419"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="92075" cap="rnd">
-          <a:solidFill>
-            <a:schemeClr val="bg1">
-              <a:lumMod val="65000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-        <a:scene3d>
-          <a:camera prst="orthographicFront"/>
-          <a:lightRig rig="threePt" dir="t"/>
-        </a:scene3d>
-        <a:sp3d>
-          <a:bevelT/>
-          <a:bevelB/>
-        </a:sp3d>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>68076</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>88585</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="288469" cy="177192"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="141" name="Picture 50">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4971B07-A747-4D8B-A3DD-AEA41CED29B7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:grayscl/>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6702919" y="6130156"/>
-          <a:ext cx="288469" cy="177192"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>224146</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>84392</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="293912" cy="171548"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="147" name="Picture 45">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A3343F9-56EC-4235-A16D-22F6C4128711}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7359732" y="6294692"/>
-          <a:ext cx="293912" cy="171548"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>989</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>84392</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="293912" cy="171548"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="148" name="Picture 45">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E918B45-0B4B-412F-B166-D68960B626F0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7887689" y="6294692"/>
-          <a:ext cx="293912" cy="171548"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>39007</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>100692</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="259895" cy="177191"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="88" name="Picture 57">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E7A888F-FCB7-45B4-BC71-8AB09B2DADDD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:grayscl/>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8176078" y="6479721"/>
-          <a:ext cx="259895" cy="177191"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>176067</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>79452</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>77107</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>81643</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="100" name="Straight Connector 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C629182-7CBA-4CD8-B8B6-1AF34F7A4257}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8689603" y="5603952"/>
-          <a:ext cx="1307111" cy="2191"/>
+        <a:xfrm flipV="1">
+          <a:off x="8801100" y="6388100"/>
+          <a:ext cx="482600" cy="2816"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -5316,25 +4353,90 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>243802</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>89650</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="255" name="Straight Connector 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E38457B-C865-A14A-895C-83F8DE52D066}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8813800" y="7683500"/>
+          <a:ext cx="472402" cy="750"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="92075" cap="rnd">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="65000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="threePt" dir="t"/>
+        </a:scene3d>
+        <a:sp3d>
+          <a:bevelT/>
+          <a:bevelB/>
+        </a:sp3d>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>235858</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>72571</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>214083</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>80832</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>34318</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>93979</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="109" name="Picture 108">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA982A66-8BB9-49C5-8873-012B73586735}"/>
+        <xdr:cNvPr id="270" name="Picture 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00E8C1FB-695E-C444-9803-FACB6BADD698}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5350,8 +4452,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9593037" y="5433785"/>
-          <a:ext cx="259439" cy="171547"/>
+          <a:off x="7112000" y="3975100"/>
+          <a:ext cx="288318" cy="233679"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5362,23 +4464,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>40822</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>77108</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>19046</xdr:colOff>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>47018</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>85369</xdr:rowOff>
+      <xdr:rowOff>93979</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="111" name="Picture 110">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{234CAFCC-838A-4A5A-9263-5DD4BC619E20}"/>
+        <xdr:cNvPr id="271" name="Picture 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08FA4C52-BF75-9740-B72F-AF61090187F1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5394,8 +4496,1492 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9116786" y="5438322"/>
-          <a:ext cx="259439" cy="171547"/>
+          <a:off x="7124700" y="5308600"/>
+          <a:ext cx="288318" cy="233679"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>34318</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>106679</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="272" name="Picture 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F24D7F6C-0C2D-7B4E-A242-085AA059B7CE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7112000" y="6642100"/>
+          <a:ext cx="288318" cy="233679"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>47018</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>93979</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="273" name="Picture 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69D598F9-D810-C24F-B6CD-5D07C793F4B7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7404100" y="2908300"/>
+          <a:ext cx="288318" cy="233679"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>71120</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>10160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>80038</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>91439</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="274" name="Picture 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65E5EB24-9A5A-5546-A5BD-E30CF57074E6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8026400" y="3058160"/>
+          <a:ext cx="293398" cy="233679"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>35560</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>69878</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>116839</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="275" name="Picture 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C57E7412-C54E-CD40-8523-F826E692185D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8300720" y="3235960"/>
+          <a:ext cx="293398" cy="233679"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>64910</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>71120</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>41937</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>126999</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="276" name="Picture 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75EFB68F-32F3-3E43-8840-AECE834628C1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8589150" y="3423920"/>
+          <a:ext cx="261507" cy="208279"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>85118</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>142239</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="277" name="Picture 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1330EB39-E7F5-F845-A0EE-F381CDEDF0CB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7462520" y="4175760"/>
+          <a:ext cx="293398" cy="233679"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>224818</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>93979</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="278" name="Picture 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{880F98DE-71C4-E148-ACB0-E3400D945160}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8140700" y="4292600"/>
+          <a:ext cx="288318" cy="233679"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>85118</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>119379</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="279" name="Picture 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1A8694B-02CA-9C48-9A72-03EEF0666036}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8280400" y="4483100"/>
+          <a:ext cx="288318" cy="233679"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>97818</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>132079</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="280" name="Picture 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B569CD11-8CCE-5F4A-A508-470E253EBEFA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8572500" y="4686300"/>
+          <a:ext cx="288318" cy="233679"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>71120</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>48260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>80038</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>116839</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="281" name="Picture 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BFFE023-C446-854A-9219-ECC76FB00B28}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7457440" y="5483860"/>
+          <a:ext cx="293398" cy="231139"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>237518</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>81279</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="282" name="Picture 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDC26FC5-4039-3546-8D5C-DDBC9979B58D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8153400" y="5626100"/>
+          <a:ext cx="288318" cy="233679"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>97818</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>81279</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="283" name="Picture 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D1AACEA-CDA1-D745-9B5B-BE41B3FC7594}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8293100" y="5791200"/>
+          <a:ext cx="288318" cy="233679"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>148618</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>93979</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="284" name="Picture 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA8208C6-B0A7-E144-AFC3-9C4739093B50}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8623300" y="5969000"/>
+          <a:ext cx="288318" cy="233679"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>16862</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>32896</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>31995</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>101475</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="285" name="Picture 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6280045-868C-3341-9BB5-18D8D7E3D4FF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7392231" y="6783675"/>
+          <a:ext cx="296198" cy="235136"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>28273</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>75701</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>37192</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>144279</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="286" name="Picture 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB6BD6DA-FAE2-9E4F-9EAF-D4BAA2296978}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7414593" y="6974341"/>
+          <a:ext cx="293399" cy="231138"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>229589</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>46292</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>238507</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>114871</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="287" name="Picture 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{047498CD-E1B2-A34D-894E-1DE3B6C0F1B0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8433789" y="7145592"/>
+          <a:ext cx="288318" cy="233679"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>148618</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>106679</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="288" name="Picture 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EA5B6F8-DC6B-6644-AB04-BF6EC8E2C544}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8623300" y="7302500"/>
+          <a:ext cx="288318" cy="233679"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>50064</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>41635</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>156870</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="289" name="Picture 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{045FD53A-BD5C-5146-8340-A85836802766}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:grayscl/>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7720864" y="4183380"/>
+          <a:ext cx="276051" cy="240690"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>59416</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>141630</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="290" name="Picture 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAABCA03-1D97-0D41-852E-B497BA5E9D34}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:grayscl/>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8788400" y="4686300"/>
+          <a:ext cx="313416" cy="243230"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>59416</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>116230</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="291" name="Picture 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26E72660-4A03-6341-982E-2655327BAEBA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:grayscl/>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9067800" y="4826000"/>
+          <a:ext cx="313416" cy="243230"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>34016</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>90830</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="292" name="Picture 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1E895BC-3456-8B45-BAF7-44FC7C46DAB9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:grayscl/>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9042400" y="3505200"/>
+          <a:ext cx="313416" cy="243230"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>20320</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>39096</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>111150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="293" name="Picture 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F36BBFF9-BF6F-C942-B054-BAAB0264A61A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:grayscl/>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8808720" y="3373120"/>
+          <a:ext cx="323576" cy="243230"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>147084</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>103529</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="294" name="Picture 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B568CFC-BD0D-8047-B387-CC99BA02CACA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:grayscl/>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7645400" y="2890284"/>
+          <a:ext cx="304800" cy="261245"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>10160</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>44176</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>139090</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="295" name="Picture 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D232A83-4117-DD48-B1BF-FA27AD107C77}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:grayscl/>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7680960" y="5496560"/>
+          <a:ext cx="318496" cy="240690"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>59416</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>78130</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="296" name="Picture 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF71AE57-D0B7-CD4B-8BD4-7F84D7EBFCB5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:grayscl/>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8509000" y="5778500"/>
+          <a:ext cx="313416" cy="243230"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>34016</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>141630</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="297" name="Picture 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2ABAB09E-59D7-4C4A-BE9B-9CEAFDF1AA1F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:grayscl/>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9042400" y="6172200"/>
+          <a:ext cx="313416" cy="243230"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>46716</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>90830</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="298" name="Picture 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F99E06F7-3E17-E942-91FB-2566A57F1F7A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:grayscl/>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8775700" y="5943600"/>
+          <a:ext cx="313416" cy="255930"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>59416</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>90830</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="299" name="Picture 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{688BED6D-C54F-A24E-AFDD-A112C283800A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:grayscl/>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9067800" y="7442200"/>
+          <a:ext cx="313416" cy="243230"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>110216</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>116230</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="300" name="Picture 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE5AD316-BC69-1C4B-9DFA-1D3D24FF3BEA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:grayscl/>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8559800" y="7137400"/>
+          <a:ext cx="313416" cy="243230"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>272947</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>16656</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>25897</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>94786</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="301" name="Picture 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3120D85-460F-3C47-B57A-D63F4069D90A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:grayscl/>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7648316" y="6767435"/>
+          <a:ext cx="315081" cy="244687"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>34016</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>90830</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="302" name="Picture 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDB07B09-F22D-484B-8955-19F572D823AF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:grayscl/>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8763000" y="7277100"/>
+          <a:ext cx="313416" cy="243230"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>264160</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>13696</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>113690</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="303" name="Picture 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78B06A61-781C-F546-9E0B-155639AEE5EA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:grayscl/>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8503920" y="4460240"/>
+          <a:ext cx="318496" cy="245770"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>1583</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>248920</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>78365</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="313" name="Picture 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7EC3276-37E7-744B-9198-8DD0D74CBF35}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:grayscl/>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8524240" y="3201983"/>
+          <a:ext cx="248920" cy="229182"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5697,18 +6283,18 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:S44"/>
+  <dimension ref="A1:S55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="230" workbookViewId="0">
-      <selection activeCell="Q34" sqref="Q34"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="125" zoomScaleNormal="75" zoomScalePageLayoutView="230" workbookViewId="0">
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="63.58203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.9140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="63.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="18" width="3.6640625" style="1" customWidth="1"/>
-    <col min="19" max="16384" width="8.9140625" style="1"/>
+    <col min="19" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="12" customHeight="1">
@@ -5825,7 +6411,7 @@
     </row>
     <row r="4" spans="1:19" ht="12" customHeight="1">
       <c r="A4" s="17" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>12</v>
@@ -5850,59 +6436,58 @@
     </row>
     <row r="5" spans="1:19" ht="12" customHeight="1">
       <c r="A5" s="17" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="14"/>
-      <c r="R5" s="12"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="7"/>
       <c r="S5" s="17"/>
     </row>
     <row r="6" spans="1:19" ht="12" customHeight="1">
       <c r="A6" s="17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="10"/>
-      <c r="E6" s="14"/>
+      <c r="E6" s="11"/>
       <c r="F6" s="12"/>
       <c r="G6" s="13"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="14"/>
       <c r="J6" s="12"/>
       <c r="K6" s="13"/>
       <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="15"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="12"/>
       <c r="O6" s="13"/>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="14"/>
       <c r="R6" s="12"/>
       <c r="S6" s="17"/>
     </row>
     <row r="7" spans="1:19" ht="12" customHeight="1">
       <c r="A7" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="2"/>
+        <v>26</v>
+      </c>
       <c r="C7" s="9"/>
       <c r="D7" s="10"/>
       <c r="E7" s="14"/>
@@ -5923,7 +6508,7 @@
     </row>
     <row r="8" spans="1:19" ht="12" customHeight="1">
       <c r="A8" s="17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="9"/>
@@ -5945,7 +6530,9 @@
       <c r="S8" s="17"/>
     </row>
     <row r="9" spans="1:19" ht="12" customHeight="1">
-      <c r="A9" s="17"/>
+      <c r="A9" s="17" t="s">
+        <v>56</v>
+      </c>
       <c r="B9" s="2"/>
       <c r="C9" s="9"/>
       <c r="D9" s="10"/>
@@ -5966,19 +6553,15 @@
       <c r="S9" s="17"/>
     </row>
     <row r="10" spans="1:19" ht="12" customHeight="1">
-      <c r="A10" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>12</v>
-      </c>
+      <c r="A10" s="17"/>
+      <c r="B10" s="2"/>
       <c r="C10" s="9"/>
       <c r="D10" s="10"/>
       <c r="E10" s="14"/>
       <c r="F10" s="12"/>
       <c r="G10" s="13"/>
       <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
+      <c r="I10" s="10"/>
       <c r="J10" s="12"/>
       <c r="K10" s="13"/>
       <c r="L10" s="11"/>
@@ -5986,16 +6569,16 @@
       <c r="N10" s="15"/>
       <c r="O10" s="13"/>
       <c r="P10" s="11"/>
-      <c r="Q10" s="11"/>
+      <c r="Q10" s="10"/>
       <c r="R10" s="12"/>
       <c r="S10" s="17"/>
     </row>
     <row r="11" spans="1:19" ht="12" customHeight="1">
-      <c r="A11" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>11</v>
+      <c r="A11" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>12</v>
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="10"/>
@@ -6011,16 +6594,16 @@
       <c r="N11" s="15"/>
       <c r="O11" s="13"/>
       <c r="P11" s="11"/>
-      <c r="Q11" s="11"/>
+      <c r="Q11" s="10"/>
       <c r="R11" s="12"/>
       <c r="S11" s="17"/>
     </row>
     <row r="12" spans="1:19" ht="12" customHeight="1">
       <c r="A12" s="17" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="10"/>
@@ -6042,10 +6625,10 @@
     </row>
     <row r="13" spans="1:19" ht="12" customHeight="1">
       <c r="A13" s="17" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C13" s="9"/>
       <c r="D13" s="10"/>
@@ -6067,9 +6650,11 @@
     </row>
     <row r="14" spans="1:19" ht="12" customHeight="1">
       <c r="A14" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="B14" s="2"/>
+        <v>28</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="C14" s="9"/>
       <c r="D14" s="10"/>
       <c r="E14" s="14"/>
@@ -6090,7 +6675,7 @@
     </row>
     <row r="15" spans="1:19" ht="12" customHeight="1">
       <c r="A15" s="17" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="9"/>
@@ -6112,7 +6697,9 @@
       <c r="S15" s="17"/>
     </row>
     <row r="16" spans="1:19" ht="12" customHeight="1">
-      <c r="A16" s="17"/>
+      <c r="A16" s="37" t="s">
+        <v>30</v>
+      </c>
       <c r="B16" s="2"/>
       <c r="C16" s="9"/>
       <c r="D16" s="10"/>
@@ -6133,12 +6720,10 @@
       <c r="S16" s="17"/>
     </row>
     <row r="17" spans="1:19" ht="12" customHeight="1">
-      <c r="A17" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="16" t="s">
-        <v>18</v>
-      </c>
+      <c r="A17" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" s="2"/>
       <c r="C17" s="9"/>
       <c r="D17" s="10"/>
       <c r="E17" s="14"/>
@@ -6158,12 +6743,8 @@
       <c r="S17" s="17"/>
     </row>
     <row r="18" spans="1:19" ht="12" customHeight="1">
-      <c r="A18" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>19</v>
-      </c>
+      <c r="A18" s="17"/>
+      <c r="B18" s="2"/>
       <c r="C18" s="9"/>
       <c r="D18" s="10"/>
       <c r="E18" s="14"/>
@@ -6183,15 +6764,15 @@
       <c r="S18" s="17"/>
     </row>
     <row r="19" spans="1:19" ht="12" customHeight="1">
-      <c r="A19" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>14</v>
+      <c r="A19" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>18</v>
       </c>
       <c r="C19" s="9"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="14"/>
       <c r="F19" s="12"/>
       <c r="G19" s="13"/>
       <c r="H19" s="11"/>
@@ -6211,7 +6792,9 @@
       <c r="A20" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="2"/>
+      <c r="B20" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="C20" s="9"/>
       <c r="D20" s="10"/>
       <c r="E20" s="14"/>
@@ -6232,12 +6815,14 @@
     </row>
     <row r="21" spans="1:19" ht="12" customHeight="1">
       <c r="A21" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="B21" s="2"/>
+        <v>50</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="C21" s="9"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="14"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="10"/>
       <c r="F21" s="12"/>
       <c r="G21" s="13"/>
       <c r="H21" s="11"/>
@@ -6255,7 +6840,7 @@
     </row>
     <row r="22" spans="1:19" ht="12" customHeight="1">
       <c r="A22" s="17" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="9"/>
@@ -6277,7 +6862,9 @@
       <c r="S22" s="17"/>
     </row>
     <row r="23" spans="1:19" ht="12" customHeight="1">
-      <c r="A23" s="17"/>
+      <c r="A23" s="17" t="s">
+        <v>31</v>
+      </c>
       <c r="B23" s="2"/>
       <c r="C23" s="9"/>
       <c r="D23" s="10"/>
@@ -6298,12 +6885,11 @@
       <c r="S23" s="17"/>
     </row>
     <row r="24" spans="1:19" ht="12" customHeight="1">
-      <c r="A24" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="A24" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" s="9"/>
       <c r="D24" s="10"/>
       <c r="E24" s="14"/>
       <c r="F24" s="12"/>
@@ -6321,13 +6907,11 @@
       <c r="R24" s="12"/>
       <c r="S24" s="17"/>
     </row>
-    <row r="25" spans="1:19">
+    <row r="25" spans="1:19" ht="12" customHeight="1">
       <c r="A25" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>11</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="B25" s="2"/>
       <c r="C25" s="9"/>
       <c r="D25" s="10"/>
       <c r="E25" s="14"/>
@@ -6346,39 +6930,24 @@
       <c r="R25" s="12"/>
       <c r="S25" s="17"/>
     </row>
-    <row r="26" spans="1:19">
-      <c r="A26" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>12</v>
-      </c>
+    <row r="26" spans="1:19" ht="12" customHeight="1">
+      <c r="A26" s="17"/>
       <c r="C26" s="9"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="13"/>
-      <c r="L26" s="11"/>
-      <c r="M26" s="11"/>
-      <c r="N26" s="15"/>
+      <c r="G26" s="9"/>
       <c r="O26" s="13"/>
       <c r="P26" s="11"/>
       <c r="Q26" s="11"/>
       <c r="R26" s="12"/>
       <c r="S26" s="17"/>
     </row>
-    <row r="27" spans="1:19" ht="15" customHeight="1">
-      <c r="A27" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C27" s="9"/>
+    <row r="27" spans="1:19" ht="12" customHeight="1">
+      <c r="A27" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" s="14"/>
       <c r="D27" s="10"/>
       <c r="E27" s="14"/>
       <c r="F27" s="12"/>
@@ -6396,11 +6965,13 @@
       <c r="R27" s="12"/>
       <c r="S27" s="17"/>
     </row>
-    <row r="28" spans="1:19">
+    <row r="28" spans="1:19" ht="12" customHeight="1">
       <c r="A28" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="B28" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="C28" s="9"/>
       <c r="D28" s="10"/>
       <c r="E28" s="14"/>
@@ -6421,12 +6992,14 @@
     </row>
     <row r="29" spans="1:19">
       <c r="A29" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="B29" s="2"/>
+        <v>33</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="C29" s="9"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="14"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="10"/>
       <c r="F29" s="12"/>
       <c r="G29" s="13"/>
       <c r="H29" s="11"/>
@@ -6443,8 +7016,12 @@
       <c r="S29" s="17"/>
     </row>
     <row r="30" spans="1:19">
-      <c r="A30" s="17"/>
-      <c r="B30" s="2"/>
+      <c r="A30" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="C30" s="9"/>
       <c r="D30" s="10"/>
       <c r="E30" s="14"/>
@@ -6463,18 +7040,15 @@
       <c r="R30" s="12"/>
       <c r="S30" s="17"/>
     </row>
-    <row r="31" spans="1:19">
-      <c r="A31" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="B31" s="16" t="s">
-        <v>19</v>
-      </c>
+    <row r="31" spans="1:19" ht="15" customHeight="1">
+      <c r="A31" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" s="2"/>
       <c r="C31" s="9"/>
-      <c r="D31" s="10"/>
+      <c r="D31" s="14"/>
       <c r="E31" s="14"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="13"/>
+      <c r="G31" s="9"/>
       <c r="H31" s="11"/>
       <c r="I31" s="11"/>
       <c r="J31" s="12"/>
@@ -6489,12 +7063,10 @@
       <c r="S31" s="17"/>
     </row>
     <row r="32" spans="1:19">
-      <c r="A32" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="A32" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" s="2"/>
       <c r="C32" s="9"/>
       <c r="D32" s="10"/>
       <c r="E32" s="14"/>
@@ -6515,11 +7087,9 @@
     </row>
     <row r="33" spans="1:19">
       <c r="A33" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>18</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="B33" s="2"/>
       <c r="C33" s="9"/>
       <c r="D33" s="10"/>
       <c r="E33" s="14"/>
@@ -6539,9 +7109,7 @@
       <c r="S33" s="17"/>
     </row>
     <row r="34" spans="1:19">
-      <c r="A34" s="17" t="s">
-        <v>50</v>
-      </c>
+      <c r="A34" s="17"/>
       <c r="B34" s="2"/>
       <c r="C34" s="9"/>
       <c r="D34" s="10"/>
@@ -6562,10 +7130,12 @@
       <c r="S34" s="17"/>
     </row>
     <row r="35" spans="1:19">
-      <c r="A35" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="B35" s="2"/>
+      <c r="A35" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="B35" s="16" t="s">
+        <v>19</v>
+      </c>
       <c r="C35" s="9"/>
       <c r="D35" s="10"/>
       <c r="E35" s="14"/>
@@ -6586,9 +7156,11 @@
     </row>
     <row r="36" spans="1:19">
       <c r="A36" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="B36" s="2"/>
+        <v>37</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="C36" s="9"/>
       <c r="D36" s="10"/>
       <c r="E36" s="14"/>
@@ -6608,8 +7180,12 @@
       <c r="S36" s="17"/>
     </row>
     <row r="37" spans="1:19">
-      <c r="A37" s="17"/>
-      <c r="B37" s="2"/>
+      <c r="A37" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="C37" s="9"/>
       <c r="D37" s="10"/>
       <c r="E37" s="14"/>
@@ -6629,11 +7205,8 @@
       <c r="S37" s="17"/>
     </row>
     <row r="38" spans="1:19">
-      <c r="A38" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="B38" s="16" t="s">
-        <v>14</v>
+      <c r="A38" s="17" t="s">
+        <v>43</v>
       </c>
       <c r="C38" s="9"/>
       <c r="D38" s="10"/>
@@ -6655,11 +7228,9 @@
     </row>
     <row r="39" spans="1:19">
       <c r="A39" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>11</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="B39" s="2"/>
       <c r="C39" s="9"/>
       <c r="D39" s="10"/>
       <c r="E39" s="14"/>
@@ -6680,11 +7251,9 @@
     </row>
     <row r="40" spans="1:19">
       <c r="A40" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>18</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="B40" s="2"/>
       <c r="C40" s="9"/>
       <c r="D40" s="10"/>
       <c r="E40" s="14"/>
@@ -6705,11 +7274,9 @@
     </row>
     <row r="41" spans="1:19">
       <c r="A41" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>12</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="B41" s="2"/>
       <c r="C41" s="9"/>
       <c r="D41" s="10"/>
       <c r="E41" s="14"/>
@@ -6729,9 +7296,7 @@
       <c r="S41" s="17"/>
     </row>
     <row r="42" spans="1:19">
-      <c r="A42" s="17" t="s">
-        <v>46</v>
-      </c>
+      <c r="A42" s="17"/>
       <c r="B42" s="2"/>
       <c r="C42" s="9"/>
       <c r="D42" s="10"/>
@@ -6752,10 +7317,12 @@
       <c r="S42" s="17"/>
     </row>
     <row r="43" spans="1:19">
-      <c r="A43" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="B43" s="2"/>
+      <c r="A43" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="B43" s="16" t="s">
+        <v>14</v>
+      </c>
       <c r="C43" s="9"/>
       <c r="D43" s="10"/>
       <c r="E43" s="14"/>
@@ -6775,25 +7342,233 @@
       <c r="S43" s="17"/>
     </row>
     <row r="44" spans="1:19">
-      <c r="A44" s="27"/>
-      <c r="B44" s="28"/>
-      <c r="C44" s="29"/>
-      <c r="D44" s="29"/>
-      <c r="E44" s="29"/>
-      <c r="F44" s="29"/>
-      <c r="G44" s="29"/>
-      <c r="H44" s="29"/>
-      <c r="I44" s="29"/>
-      <c r="J44" s="29"/>
-      <c r="K44" s="29"/>
-      <c r="L44" s="29"/>
-      <c r="M44" s="29"/>
-      <c r="N44" s="29"/>
-      <c r="O44" s="29"/>
-      <c r="P44" s="29"/>
-      <c r="Q44" s="29"/>
-      <c r="R44" s="29"/>
-      <c r="S44" s="27"/>
+      <c r="A44" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C44" s="9"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="13"/>
+      <c r="H44" s="11"/>
+      <c r="I44" s="11"/>
+      <c r="J44" s="12"/>
+      <c r="K44" s="13"/>
+      <c r="L44" s="11"/>
+      <c r="M44" s="11"/>
+      <c r="N44" s="15"/>
+      <c r="O44" s="13"/>
+      <c r="P44" s="11"/>
+      <c r="Q44" s="11"/>
+      <c r="R44" s="12"/>
+      <c r="S44" s="17"/>
+    </row>
+    <row r="45" spans="1:19">
+      <c r="A45" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C45" s="9"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="13"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="11"/>
+      <c r="J45" s="12"/>
+      <c r="K45" s="13"/>
+      <c r="L45" s="11"/>
+      <c r="M45" s="11"/>
+      <c r="N45" s="15"/>
+      <c r="O45" s="13"/>
+      <c r="P45" s="11"/>
+      <c r="Q45" s="11"/>
+      <c r="R45" s="12"/>
+      <c r="S45" s="17"/>
+    </row>
+    <row r="46" spans="1:19">
+      <c r="A46" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C46" s="9"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="13"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="11"/>
+      <c r="J46" s="12"/>
+      <c r="K46" s="13"/>
+      <c r="L46" s="11"/>
+      <c r="M46" s="11"/>
+      <c r="N46" s="15"/>
+      <c r="O46" s="13"/>
+      <c r="P46" s="11"/>
+      <c r="Q46" s="11"/>
+      <c r="R46" s="12"/>
+      <c r="S46" s="17"/>
+    </row>
+    <row r="47" spans="1:19">
+      <c r="A47" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="B47" s="2"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="13"/>
+      <c r="H47" s="11"/>
+      <c r="I47" s="11"/>
+      <c r="J47" s="12"/>
+      <c r="K47" s="13"/>
+      <c r="L47" s="11"/>
+      <c r="M47" s="11"/>
+      <c r="N47" s="15"/>
+      <c r="O47" s="13"/>
+      <c r="P47" s="11"/>
+      <c r="Q47" s="11"/>
+      <c r="R47" s="12"/>
+      <c r="S47" s="17"/>
+    </row>
+    <row r="48" spans="1:19">
+      <c r="A48" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="B48" s="2"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="12"/>
+      <c r="G48" s="13"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="11"/>
+      <c r="J48" s="12"/>
+      <c r="K48" s="13"/>
+      <c r="L48" s="11"/>
+      <c r="M48" s="11"/>
+      <c r="N48" s="15"/>
+      <c r="O48" s="13"/>
+      <c r="P48" s="11"/>
+      <c r="Q48" s="11"/>
+      <c r="R48" s="12"/>
+      <c r="S48" s="17"/>
+    </row>
+    <row r="49" spans="1:19">
+      <c r="A49" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="B49" s="2"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="13"/>
+      <c r="H49" s="11"/>
+      <c r="I49" s="11"/>
+      <c r="J49" s="12"/>
+      <c r="K49" s="13"/>
+      <c r="L49" s="11"/>
+      <c r="M49" s="11"/>
+      <c r="N49" s="15"/>
+      <c r="O49" s="13"/>
+      <c r="P49" s="11"/>
+      <c r="Q49" s="11"/>
+      <c r="R49" s="12"/>
+      <c r="S49" s="17"/>
+    </row>
+    <row r="50" spans="1:19">
+      <c r="A50" s="27"/>
+      <c r="O50" s="29"/>
+      <c r="P50" s="29"/>
+      <c r="Q50" s="29"/>
+      <c r="R50" s="29"/>
+      <c r="S50" s="27"/>
+    </row>
+    <row r="51" spans="1:19">
+      <c r="A51" s="28"/>
+      <c r="B51" s="28"/>
+      <c r="C51" s="29"/>
+      <c r="D51" s="29"/>
+      <c r="E51" s="29"/>
+      <c r="F51" s="29"/>
+      <c r="G51" s="29"/>
+      <c r="H51" s="29"/>
+      <c r="I51" s="29"/>
+      <c r="J51" s="29"/>
+      <c r="K51" s="29"/>
+      <c r="L51" s="29"/>
+      <c r="M51" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N51" s="29"/>
+      <c r="O51" s="29"/>
+      <c r="P51" s="29"/>
+      <c r="Q51" s="29"/>
+      <c r="R51" s="29"/>
+      <c r="S51" s="27"/>
+    </row>
+    <row r="52" spans="1:19">
+      <c r="A52" s="27"/>
+      <c r="B52" s="28"/>
+      <c r="C52" s="29"/>
+      <c r="D52" s="29"/>
+      <c r="E52" s="29"/>
+      <c r="F52" s="29"/>
+      <c r="G52" s="29"/>
+      <c r="H52" s="29"/>
+      <c r="I52" s="29"/>
+      <c r="J52" s="29"/>
+      <c r="K52" s="29"/>
+      <c r="L52" s="29"/>
+      <c r="M52" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N52" s="29"/>
+      <c r="O52" s="29"/>
+      <c r="P52" s="29"/>
+      <c r="Q52" s="29"/>
+      <c r="R52" s="27"/>
+    </row>
+    <row r="53" spans="1:19">
+      <c r="B53" s="28"/>
+      <c r="C53" s="29"/>
+      <c r="D53" s="29"/>
+      <c r="E53" s="29"/>
+      <c r="F53" s="29"/>
+      <c r="G53" s="29"/>
+      <c r="H53" s="29"/>
+      <c r="I53" s="29"/>
+      <c r="J53" s="29"/>
+      <c r="K53" s="29"/>
+      <c r="L53" s="29"/>
+      <c r="N53" s="29"/>
+    </row>
+    <row r="54" spans="1:19">
+      <c r="B54" s="28"/>
+      <c r="C54" s="29"/>
+      <c r="D54" s="29"/>
+      <c r="E54" s="29"/>
+      <c r="F54" s="29"/>
+      <c r="G54" s="29"/>
+      <c r="H54" s="29"/>
+      <c r="I54" s="29"/>
+      <c r="J54" s="29"/>
+      <c r="K54" s="29"/>
+      <c r="L54" s="29"/>
+      <c r="M54" s="29"/>
+      <c r="N54" s="29"/>
+    </row>
+    <row r="55" spans="1:19">
+      <c r="B55" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -6817,7 +7592,7 @@
   <sheetViews>
     <sheetView zoomScale="63" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="14"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6831,7 +7606,7 @@
   <sheetViews>
     <sheetView zoomScale="58" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="14"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Gantt_Worksheet-Group_6.xlsx
+++ b/Gantt_Worksheet-Group_6.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yujiayue/Group-6-Animal-Hospital-System/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C1134E6-9917-A048-AEEE-A06EC338561F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4315D7D8-FC57-B54A-93C0-E7EB8FB8E485}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -685,6 +685,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -706,9 +709,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -801,8 +801,8 @@
       <xdr:rowOff>81280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>233680</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>81644</xdr:rowOff>
     </xdr:to>
@@ -820,7 +820,7 @@
       <xdr:spPr>
         <a:xfrm flipV="1">
           <a:off x="6018349" y="538480"/>
-          <a:ext cx="1621971" cy="364"/>
+          <a:ext cx="1032691" cy="364"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -928,15 +928,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>52377</xdr:colOff>
+      <xdr:colOff>28433</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>98535</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>251811</xdr:colOff>
+      <xdr:rowOff>85299</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>251812</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>102388</xdr:rowOff>
+      <xdr:rowOff>89058</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -950,9 +950,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="6873153" y="711638"/>
-          <a:ext cx="1053399" cy="3853"/>
+        <a:xfrm>
+          <a:off x="6823881" y="691866"/>
+          <a:ext cx="773080" cy="3759"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1190,15 +1190,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>43793</xdr:colOff>
+      <xdr:colOff>37911</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>91441</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>274320</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>274321</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>98535</xdr:rowOff>
+      <xdr:rowOff>94777</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1213,8 +1213,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="6864569" y="1930751"/>
-          <a:ext cx="1084492" cy="7094"/>
+          <a:off x="6833359" y="1911142"/>
+          <a:ext cx="786111" cy="3336"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1261,8 +1261,8 @@
       <xdr:rowOff>81280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>264160</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>243840</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>81644</xdr:rowOff>
     </xdr:to>
@@ -1279,8 +1279,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="6014720" y="1910080"/>
-          <a:ext cx="1635760" cy="364"/>
+          <a:off x="6014720" y="1757680"/>
+          <a:ext cx="1046480" cy="364"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1322,15 +1322,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>64307</xdr:colOff>
+      <xdr:colOff>58288</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>80580</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>264160</xdr:colOff>
+      <xdr:rowOff>84265</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>234739</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>81280</xdr:rowOff>
+      <xdr:rowOff>86601</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1344,9 +1344,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6028227" y="2976180"/>
-          <a:ext cx="1622253" cy="700"/>
+        <a:xfrm flipV="1">
+          <a:off x="6029094" y="2943270"/>
+          <a:ext cx="1007067" cy="2336"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1648,16 +1648,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>21561</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>52041</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>20320</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>60959</xdr:colOff>
+      <xdr:colOff>30479</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>101599</xdr:rowOff>
+      <xdr:rowOff>81279</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1680,7 +1680,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7153881" y="325120"/>
+          <a:off x="6838921" y="304800"/>
           <a:ext cx="293398" cy="233679"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1692,16 +1692,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>39463</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>12207</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>48941</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>40640</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>73430</xdr:colOff>
+      <xdr:colOff>63953</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>117667</xdr:rowOff>
+      <xdr:rowOff>89234</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1724,8 +1724,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7414941" y="497840"/>
-          <a:ext cx="303889" cy="229427"/>
+          <a:off x="7109762" y="467132"/>
+          <a:ext cx="299340" cy="228669"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1736,16 +1736,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>37909</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>85297</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>54680</xdr:colOff>
+      <xdr:colOff>246418</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>81280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>243840</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>84270</xdr:rowOff>
+      <xdr:rowOff>85298</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1759,9 +1759,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="7441000" y="3129280"/>
-          <a:ext cx="473640" cy="2990"/>
+        <a:xfrm>
+          <a:off x="7108208" y="3118133"/>
+          <a:ext cx="483359" cy="1"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1960,16 +1960,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>50101</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>26262</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>31145</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>54695</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>58420</xdr:colOff>
+      <xdr:colOff>77376</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>123173</xdr:rowOff>
+      <xdr:rowOff>94740</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1994,8 +1994,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7676545" y="1731095"/>
-          <a:ext cx="306675" cy="220878"/>
+          <a:off x="7395250" y="1694322"/>
+          <a:ext cx="302126" cy="220119"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2007,15 +2007,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>59871</xdr:colOff>
+      <xdr:colOff>50393</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>81643</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>227641</xdr:colOff>
+      <xdr:rowOff>81644</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>227462</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>83868</xdr:rowOff>
+      <xdr:rowOff>85299</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2030,8 +2030,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6026475" y="4287020"/>
-          <a:ext cx="1270034" cy="2225"/>
+          <a:off x="6021289" y="4175972"/>
+          <a:ext cx="1001621" cy="3655"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2205,15 +2205,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>60966</xdr:colOff>
+      <xdr:colOff>47388</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
+      <xdr:rowOff>94777</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>246418</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>102054</xdr:rowOff>
+      <xdr:rowOff>94777</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2227,9 +2227,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="6593846" y="4368800"/>
-          <a:ext cx="1330954" cy="454"/>
+        <a:xfrm>
+          <a:off x="6567985" y="4340747"/>
+          <a:ext cx="1023582" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2468,15 +2468,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>51910</xdr:colOff>
+      <xdr:colOff>47388</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>81280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:rowOff>90758</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>254000</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>86684</xdr:rowOff>
+      <xdr:rowOff>94777</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2491,8 +2491,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="6584790" y="5679440"/>
-          <a:ext cx="1340010" cy="5404"/>
+          <a:off x="6567985" y="5654116"/>
+          <a:ext cx="1031164" cy="4019"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2536,11 +2536,11 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>40822</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>83868</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>251604</xdr:colOff>
+      <xdr:rowOff>85298</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>255895</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>89088</xdr:rowOff>
     </xdr:to>
@@ -2557,8 +2557,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="6007426" y="5643113"/>
-          <a:ext cx="1313046" cy="5220"/>
+          <a:off x="6011718" y="5487537"/>
+          <a:ext cx="1039625" cy="3790"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2794,16 +2794,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>44456</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>88741</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:rowOff>102110</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>260245</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>93689</xdr:rowOff>
+      <xdr:rowOff>107058</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2818,8 +2818,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6576628" y="7006077"/>
-          <a:ext cx="1340051" cy="4948"/>
+          <a:off x="6294193" y="7107163"/>
+          <a:ext cx="1338736" cy="4948"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2865,10 +2865,10 @@
       <xdr:rowOff>85272</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>241300</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>233947</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:rowOff>86895</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2883,8 +2883,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6017986" y="6854372"/>
-          <a:ext cx="1589314" cy="3628"/>
+          <a:off x="6017986" y="6923219"/>
+          <a:ext cx="1027172" cy="1623"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -3577,16 +3577,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>47085</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>151148</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>66040</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>27940</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>55148</xdr:colOff>
+      <xdr:colOff>36193</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>107160</xdr:rowOff>
+      <xdr:rowOff>78727</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3611,8 +3611,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7711440" y="485140"/>
-          <a:ext cx="268508" cy="231620"/>
+          <a:off x="7392234" y="454432"/>
+          <a:ext cx="263959" cy="230862"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3623,16 +3623,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>20320</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>10160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>40640</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>142240</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>49558</xdr:colOff>
+      <xdr:colOff>29238</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>71119</xdr:rowOff>
+      <xdr:rowOff>91439</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3655,7 +3655,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7142480" y="1513840"/>
+          <a:off x="6837680" y="1534160"/>
           <a:ext cx="293398" cy="233679"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3779,16 +3779,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>68579</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>34385</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>68580</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
       <xdr:colOff>77498</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>134619</xdr:rowOff>
+      <xdr:rowOff>115664</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3811,8 +3811,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7434580" y="1729740"/>
-          <a:ext cx="288318" cy="233679"/>
+          <a:off x="7138878" y="1702445"/>
+          <a:ext cx="283769" cy="232920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4047,16 +4047,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>16300</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>133177</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>74467</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>141540</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>83385</xdr:colOff>
+      <xdr:colOff>25218</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>70419</xdr:rowOff>
+      <xdr:rowOff>62056</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4079,8 +4079,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7176307" y="2732340"/>
-          <a:ext cx="293398" cy="233679"/>
+          <a:off x="6817722" y="2691234"/>
+          <a:ext cx="285790" cy="229827"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4420,16 +4420,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>271818</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>145387</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>34318</xdr:colOff>
+      <xdr:colOff>5884</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>93979</xdr:rowOff>
+      <xdr:rowOff>75024</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4452,8 +4452,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7112000" y="3975100"/>
-          <a:ext cx="288318" cy="233679"/>
+          <a:off x="6792415" y="3936432"/>
+          <a:ext cx="283768" cy="232920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4464,16 +4464,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>28623</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>158086</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>47018</xdr:colOff>
+      <xdr:colOff>37540</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>93979</xdr:rowOff>
+      <xdr:rowOff>65546</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4496,8 +4496,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7124700" y="5308600"/>
-          <a:ext cx="288318" cy="233679"/>
+          <a:off x="6824071" y="5238086"/>
+          <a:ext cx="283768" cy="229699"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4508,16 +4508,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>5347</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>31415</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>34318</xdr:colOff>
+      <xdr:colOff>14266</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>106679</xdr:rowOff>
+      <xdr:rowOff>99994</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4540,8 +4540,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7112000" y="6642100"/>
-          <a:ext cx="288318" cy="233679"/>
+          <a:off x="6816558" y="6702257"/>
+          <a:ext cx="289655" cy="235684"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4552,16 +4552,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>76010</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>145386</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>47018</xdr:colOff>
+      <xdr:colOff>84929</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>93979</xdr:rowOff>
+      <xdr:rowOff>75023</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4584,8 +4584,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7404100" y="2908300"/>
-          <a:ext cx="288318" cy="233679"/>
+          <a:off x="7146309" y="2874938"/>
+          <a:ext cx="283769" cy="232921"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4728,16 +4728,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>66722</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>42004</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>85118</xdr:colOff>
+      <xdr:colOff>75641</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>142239</xdr:rowOff>
+      <xdr:rowOff>123283</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4760,8 +4760,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7462520" y="4175760"/>
-          <a:ext cx="293398" cy="233679"/>
+          <a:off x="7137021" y="4136332"/>
+          <a:ext cx="283769" cy="232921"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4904,16 +4904,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>71119</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>29304</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>71120</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>48260</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
       <xdr:colOff>80038</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>116839</xdr:rowOff>
+      <xdr:rowOff>97883</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4936,8 +4936,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7457440" y="5483860"/>
-          <a:ext cx="293398" cy="231139"/>
+          <a:off x="7141418" y="5431543"/>
+          <a:ext cx="283769" cy="229698"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5080,14 +5080,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>16862</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>77020</xdr:colOff>
       <xdr:row>43</xdr:row>
       <xdr:rowOff>32896</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>31995</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>92153</xdr:colOff>
       <xdr:row>44</xdr:row>
       <xdr:rowOff>101475</xdr:rowOff>
     </xdr:to>
@@ -5112,8 +5112,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7392231" y="6783675"/>
-          <a:ext cx="296198" cy="235136"/>
+          <a:off x="7168967" y="6870843"/>
+          <a:ext cx="295870" cy="235685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5256,16 +5256,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>69019</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>30669</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>50064</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>41635</xdr:colOff>
+      <xdr:colOff>60590</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>156870</xdr:rowOff>
+      <xdr:rowOff>118959</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5290,8 +5290,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7720864" y="4183380"/>
-          <a:ext cx="276051" cy="240690"/>
+          <a:off x="7414168" y="4124997"/>
+          <a:ext cx="266422" cy="239932"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5486,16 +5486,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>28432</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>142165</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>147084</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
+      <xdr:colOff>53832</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>103529</xdr:rowOff>
+      <xdr:rowOff>65619</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5520,8 +5520,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7645400" y="2890284"/>
-          <a:ext cx="304800" cy="261245"/>
+          <a:off x="7373581" y="2871717"/>
+          <a:ext cx="300251" cy="226738"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5532,16 +5532,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>10160</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:rowOff>4094</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>44176</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>139090</xdr:rowOff>
+      <xdr:rowOff>82224</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5566,8 +5566,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7680960" y="5496560"/>
-          <a:ext cx="318496" cy="240690"/>
+          <a:off x="7355309" y="5406333"/>
+          <a:ext cx="308867" cy="239249"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5809,15 +5809,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>272947</xdr:colOff>
+      <xdr:colOff>12262</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>16656</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>25897</xdr:colOff>
+      <xdr:rowOff>23340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>45949</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>94786</xdr:rowOff>
+      <xdr:rowOff>101470</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5842,8 +5842,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7648316" y="6767435"/>
-          <a:ext cx="315081" cy="244687"/>
+          <a:off x="7384946" y="6861287"/>
+          <a:ext cx="314424" cy="245236"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6285,8 +6285,8 @@
   </sheetPr>
   <dimension ref="A1:S55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="125" zoomScaleNormal="75" zoomScalePageLayoutView="230" workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="84" zoomScaleNormal="75" zoomScalePageLayoutView="230" workbookViewId="0">
+      <selection activeCell="I46" sqref="I46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
@@ -6298,40 +6298,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="12" customHeight="1">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="34" t="s">
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="34" t="s">
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="34" t="s">
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="35"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="36"/>
     </row>
     <row r="2" spans="1:19" ht="12" customHeight="1" thickBot="1">
-      <c r="A2" s="31"/>
-      <c r="B2" s="33"/>
+      <c r="A2" s="32"/>
+      <c r="B2" s="34"/>
       <c r="C2" s="22" t="s">
         <v>5</v>
       </c>
@@ -6697,7 +6697,7 @@
       <c r="S15" s="17"/>
     </row>
     <row r="16" spans="1:19" ht="12" customHeight="1">
-      <c r="A16" s="37" t="s">
+      <c r="A16" s="30" t="s">
         <v>30</v>
       </c>
       <c r="B16" s="2"/>
@@ -7063,7 +7063,7 @@
       <c r="S31" s="17"/>
     </row>
     <row r="32" spans="1:19">
-      <c r="A32" s="37" t="s">
+      <c r="A32" s="30" t="s">
         <v>36</v>
       </c>
       <c r="B32" s="2"/>
@@ -7392,7 +7392,7 @@
       <c r="S45" s="17"/>
     </row>
     <row r="46" spans="1:19">
-      <c r="A46" s="37" t="s">
+      <c r="A46" s="30" t="s">
         <v>53</v>
       </c>
       <c r="B46" s="2" t="s">
@@ -7417,7 +7417,7 @@
       <c r="S46" s="17"/>
     </row>
     <row r="47" spans="1:19">
-      <c r="A47" s="37" t="s">
+      <c r="A47" s="30" t="s">
         <v>52</v>
       </c>
       <c r="B47" s="2"/>
@@ -7440,7 +7440,7 @@
       <c r="S47" s="17"/>
     </row>
     <row r="48" spans="1:19">
-      <c r="A48" s="37" t="s">
+      <c r="A48" s="30" t="s">
         <v>54</v>
       </c>
       <c r="B48" s="2"/>
